--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna4-Epha2.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H2">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I2">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J2">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N2">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P2">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q2">
-        <v>6.734144825560668</v>
+        <v>22.24469605167378</v>
       </c>
       <c r="R2">
-        <v>60.60730343004601</v>
+        <v>200.202264465064</v>
       </c>
       <c r="S2">
-        <v>0.1622494784899011</v>
+        <v>0.3003817554264989</v>
       </c>
       <c r="T2">
-        <v>0.1622494784899011</v>
+        <v>0.3003817554264989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H3">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I3">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J3">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.413406</v>
       </c>
       <c r="O3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P3">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q3">
-        <v>0.7658947285373333</v>
+        <v>1.632674567741333</v>
       </c>
       <c r="R3">
-        <v>6.893052556836</v>
+        <v>14.694071109672</v>
       </c>
       <c r="S3">
-        <v>0.01845312560128979</v>
+        <v>0.02204685789183622</v>
       </c>
       <c r="T3">
-        <v>0.01845312560128979</v>
+        <v>0.02204685789183622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H4">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I4">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J4">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N4">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P4">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q4">
-        <v>5.709684679648</v>
+        <v>12.69662781879822</v>
       </c>
       <c r="R4">
-        <v>51.387162116832</v>
+        <v>114.269650369184</v>
       </c>
       <c r="S4">
-        <v>0.1375665931772617</v>
+        <v>0.1714492004452703</v>
       </c>
       <c r="T4">
-        <v>0.1375665931772617</v>
+        <v>0.1714492004452703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6731353333333333</v>
+        <v>1.434937333333333</v>
       </c>
       <c r="H5">
-        <v>2.019406</v>
+        <v>4.304812</v>
       </c>
       <c r="I5">
-        <v>0.3272865828458516</v>
+        <v>0.5010808920723563</v>
       </c>
       <c r="J5">
-        <v>0.3272865828458517</v>
+        <v>0.5010808920723562</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N5">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P5">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q5">
-        <v>0.3742654891177778</v>
+        <v>0.533422169356</v>
       </c>
       <c r="R5">
-        <v>3.36838940206</v>
+        <v>4.800799524204</v>
       </c>
       <c r="S5">
-        <v>0.00901738557739905</v>
+        <v>0.007203078308750824</v>
       </c>
       <c r="T5">
-        <v>0.009017385577399051</v>
+        <v>0.007203078308750821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H6">
         <v>2.989327</v>
       </c>
       <c r="I6">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J6">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N6">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P6">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q6">
-        <v>9.968555579689667</v>
+        <v>15.44705564704378</v>
       </c>
       <c r="R6">
-        <v>89.717000217207</v>
+        <v>139.023500823394</v>
       </c>
       <c r="S6">
-        <v>0.2401779269675244</v>
+        <v>0.20858966472957</v>
       </c>
       <c r="T6">
-        <v>0.2401779269675244</v>
+        <v>0.2085896647295699</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H7">
         <v>2.989327</v>
       </c>
       <c r="I7">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J7">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.413406</v>
       </c>
       <c r="O7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P7">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q7">
         <v>1.133754079751333</v>
@@ -883,10 +883,10 @@
         <v>10.203786717762</v>
       </c>
       <c r="S7">
-        <v>0.02731616455251039</v>
+        <v>0.01530967381647075</v>
       </c>
       <c r="T7">
-        <v>0.0273161645525104</v>
+        <v>0.01530967381647075</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H8">
         <v>2.989327</v>
       </c>
       <c r="I8">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J8">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N8">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P8">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q8">
-        <v>8.452047074416001</v>
+        <v>8.816731682518222</v>
       </c>
       <c r="R8">
-        <v>76.06842366974399</v>
+        <v>79.350585142664</v>
       </c>
       <c r="S8">
-        <v>0.203639848194372</v>
+        <v>0.119056935359653</v>
       </c>
       <c r="T8">
-        <v>0.2036398481943721</v>
+        <v>0.1190569353596529</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9964423333333333</v>
+        <v>0.9964423333333334</v>
       </c>
       <c r="H9">
         <v>2.989327</v>
       </c>
       <c r="I9">
-        <v>0.4844823769162026</v>
+        <v>0.3479582011609289</v>
       </c>
       <c r="J9">
-        <v>0.4844823769162027</v>
+        <v>0.3479582011609288</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N9">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P9">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q9">
-        <v>0.5540252588077779</v>
+        <v>0.370416476551</v>
       </c>
       <c r="R9">
-        <v>4.98622732927</v>
+        <v>3.333748288959</v>
       </c>
       <c r="S9">
-        <v>0.01334843720179576</v>
+        <v>0.005001927255235113</v>
       </c>
       <c r="T9">
-        <v>0.01334843720179576</v>
+        <v>0.00500192725523511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H10">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I10">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J10">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.004147</v>
+        <v>15.50220733333333</v>
       </c>
       <c r="N10">
-        <v>30.012441</v>
+        <v>46.506622</v>
       </c>
       <c r="O10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="P10">
-        <v>0.4957413074471153</v>
+        <v>0.5994675913188158</v>
       </c>
       <c r="Q10">
-        <v>3.872982126570334</v>
+        <v>6.701671406431778</v>
       </c>
       <c r="R10">
-        <v>34.856839139133</v>
+        <v>60.315042657886</v>
       </c>
       <c r="S10">
-        <v>0.09331390198968979</v>
+        <v>0.09049617116274694</v>
       </c>
       <c r="T10">
-        <v>0.09331390198968982</v>
+        <v>0.09049617116274691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H11">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I11">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J11">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.413406</v>
       </c>
       <c r="O11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="P11">
-        <v>0.05638216342642133</v>
+        <v>0.04399860030713892</v>
       </c>
       <c r="Q11">
-        <v>0.4404860114086667</v>
+        <v>0.4918767350753334</v>
       </c>
       <c r="R11">
-        <v>3.964374102678</v>
+        <v>4.426890615678</v>
       </c>
       <c r="S11">
-        <v>0.01061287327262114</v>
+        <v>0.006642068598831956</v>
       </c>
       <c r="T11">
-        <v>0.01061287327262115</v>
+        <v>0.006642068598831954</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H12">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I12">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J12">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.482224</v>
+        <v>8.848210666666667</v>
       </c>
       <c r="N12">
-        <v>25.446672</v>
+        <v>26.544632</v>
       </c>
       <c r="O12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="P12">
-        <v>0.4203245729815145</v>
+        <v>0.3421587275782868</v>
       </c>
       <c r="Q12">
-        <v>3.283788407504</v>
+        <v>3.825119813446222</v>
       </c>
       <c r="R12">
-        <v>29.554095667536</v>
+        <v>34.426078321016</v>
       </c>
       <c r="S12">
-        <v>0.07911813160988082</v>
+        <v>0.05165259177336358</v>
       </c>
       <c r="T12">
-        <v>0.07911813160988085</v>
+        <v>0.05165259177336357</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3871376666666667</v>
+        <v>0.4323043333333333</v>
       </c>
       <c r="H13">
-        <v>1.161413</v>
+        <v>1.296913</v>
       </c>
       <c r="I13">
-        <v>0.1882310402379457</v>
+        <v>0.150960906766715</v>
       </c>
       <c r="J13">
-        <v>0.1882310402379458</v>
+        <v>0.1509609067667149</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5560033333333334</v>
+        <v>0.371739</v>
       </c>
       <c r="N13">
-        <v>1.66801</v>
+        <v>1.115217</v>
       </c>
       <c r="O13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575842</v>
       </c>
       <c r="P13">
-        <v>0.02755195614494878</v>
+        <v>0.01437508079575841</v>
       </c>
       <c r="Q13">
-        <v>0.2152498331255556</v>
+        <v>0.160704380569</v>
       </c>
       <c r="R13">
-        <v>1.93724849813</v>
+        <v>1.446339425121</v>
       </c>
       <c r="S13">
-        <v>0.005186133365753971</v>
+        <v>0.002170075231772481</v>
       </c>
       <c r="T13">
-        <v>0.005186133365753972</v>
+        <v>0.00217007523177248</v>
       </c>
     </row>
   </sheetData>
